--- a/testData/dominion-input.xlsx
+++ b/testData/dominion-input.xlsx
@@ -113,6 +113,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF89CC89"/>
+        <bgColor rgb="FF89CC89"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF89CC89"/>
+        <bgColor rgb="FF89CC89"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFABAB"/>
         <bgColor rgb="FFFFABAB"/>
       </patternFill>
@@ -121,18 +133,6 @@
       <patternFill patternType="none">
         <fgColor rgb="FFFFABAB"/>
         <bgColor rgb="FFFFABAB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF89CC89"/>
-        <bgColor rgb="FF89CC89"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF89CC89"/>
-        <bgColor rgb="FF89CC89"/>
       </patternFill>
     </fill>
     <fill>
@@ -228,70 +228,70 @@
   </cellStyleXfs>
   <cellXfs count="42">
     <xf applyFont="1" applyFill="1" applyBorder="1" numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="2" fillId="0" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="3" fillId="0" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="4" fillId="0" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="83" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="5" fillId="0" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="6" fillId="0" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="7" fillId="0" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="7" fillId="0" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="82" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="6" fillId="2" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="6" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="1" fillId="0" borderId="2">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="1" fillId="0" borderId="3">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="3">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="7" fillId="0" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="7" fillId="0" borderId="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="7" fillId="0" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="7" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="7" fillId="0" borderId="1">
+    <xf applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="7" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="84" fontId="7" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="8" fillId="0" borderId="0">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="6" fillId="2" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="6" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="1" fillId="0" borderId="4">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="1" fillId="2" borderId="5">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="2" borderId="5">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="1" fillId="0" borderId="6">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="1" fillId="0" borderId="6">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="85" fontId="7" fillId="0" borderId="1">
@@ -324,28 +324,28 @@
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="86" fontId="7" fillId="6" borderId="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="6" fillId="0" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="6" fillId="0" borderId="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="85" fontId="6" fillId="0" borderId="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="6" fillId="0" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="6" fillId="0" borderId="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="7" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="85" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="7" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="85" fontId="7" fillId="7" borderId="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" fontId="6" fillId="7" borderId="1">
+    <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="0" fontId="6" fillId="7" borderId="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" readingOrder="1"/>
     </xf>
     <xf applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" numFmtId="85" fontId="6" fillId="7" borderId="1">
@@ -371,8 +371,8 @@
       <rgbColor rgb="00696969"/>
       <rgbColor rgb="00D3D3D3"/>
       <rgbColor rgb="00E0E0E0"/>
+      <rgbColor rgb="0089CC89"/>
       <rgbColor rgb="00FFABAB"/>
-      <rgbColor rgb="0089CC89"/>
       <rgbColor rgb="00F4F4F4"/>
       <rgbColor rgb="0000FFFF"/>
       <rgbColor rgb="00800000"/>
@@ -466,12 +466,6 @@
     <col min="25" max="25" customWidth="1" width="9.6015625"/>
     <col min="26" max="26" customWidth="1" width="9.6015625"/>
     <col min="27" max="27" customWidth="1" width="10.97265625"/>
-    <col min="28" max="28" customWidth="1" width="9.6015625"/>
-    <col min="29" max="29" customWidth="1" width="9.6015625"/>
-    <col min="30" max="30" customWidth="1" width="10.97265625"/>
-    <col min="31" max="31" customWidth="1" width="9.6015625"/>
-    <col min="32" max="32" customWidth="1" width="9.6015625"/>
-    <col min="33" max="33" customWidth="1" width="10.97265625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.4" customHeight="1">
@@ -528,7 +522,7 @@
         </is>
       </c>
       <c s="2" r="G1">
-        <v>43777.5810935417</v>
+        <v>44516.5115756713</v>
       </c>
     </row>
     <row r="2" ht="3.6" customHeight="1"/>
@@ -551,14 +545,14 @@
     <row r="7" ht="18" customHeight="1">
       <c s="4" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Dona Ana County</t>
+          <t xml:space="preserve">Salt Lake County</t>
         </is>
       </c>
     </row>
     <row r="8" ht="1" customHeight="1"/>
     <row r="9" ht="18" customHeight="1">
       <c s="5" r="A9">
-        <v>43774</v>
+        <v>44502</v>
       </c>
     </row>
     <row r="10" ht="1.8" customHeight="1"/>
@@ -566,14 +560,14 @@
     <row r="12" ht="18" customHeight="1">
       <c s="6" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">MAYOR CITY OF LAS CRUCES</t>
+          <t xml:space="preserve">SANDY CITY MAYOR</t>
         </is>
       </c>
     </row>
     <row r="13" ht="14.4" customHeight="1">
       <c s="7" t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Unofficial results</t>
+          <t xml:space="preserve">Official results</t>
         </is>
       </c>
     </row>
@@ -638,7 +632,7 @@
         </is>
       </c>
       <c s="10" r="E16">
-        <v>43777.5751964468</v>
+        <v>44516.5081522801</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1"/>
@@ -720,7 +714,7 @@
       <c s="12" t="str" r="C22"/>
       <c s="13" t="str" r="D22"/>
       <c s="16" t="b" r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="12" t="str" r="F22"/>
       <c s="12" t="str" r="G22"/>
@@ -738,7 +732,7 @@
       <c s="13" t="str" r="D23"/>
       <c s="15" t="inlineStr" r="E23">
         <is>
-          <t xml:space="preserve">Backwards from previous round</t>
+          <t xml:space="preserve">None</t>
         </is>
       </c>
       <c s="12" t="str" r="F23"/>
@@ -792,7 +786,7 @@
       <c s="12" t="str" r="C26"/>
       <c s="13" t="str" r="D26"/>
       <c s="16" t="b" r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c s="12" t="str" r="F26"/>
       <c s="12" t="str" r="G26"/>
@@ -856,7 +850,7 @@
     <row r="31" ht="21.6" customHeight="1">
       <c s="18" t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Dona Ana County</t>
+          <t xml:space="preserve">Salt Lake County</t>
         </is>
       </c>
     </row>
@@ -1081,66 +1075,6 @@
       </c>
       <c s="12" t="str" r="Z32"/>
       <c s="13" t="str" r="AA32"/>
-      <c s="19" t="inlineStr" r="AB32">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="8"/>
-              <color rgb="FF000000"/>
-              <rFont val="Segoe UI"/>
-            </rPr>
-            <t xml:space="preserve">Round </t>
-          </r>
-          <r>
-            <rPr>
-              <b/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="8"/>
-              <color rgb="FF000000"/>
-              <rFont val="Segoe UI"/>
-            </rPr>
-            <t xml:space="preserve">8</t>
-          </r>
-        </is>
-      </c>
-      <c s="12" t="str" r="AC32"/>
-      <c s="13" t="str" r="AD32"/>
-      <c s="19" t="inlineStr" r="AE32">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="8"/>
-              <color rgb="FF000000"/>
-              <rFont val="Segoe UI"/>
-            </rPr>
-            <t xml:space="preserve">Round </t>
-          </r>
-          <r>
-            <rPr>
-              <b/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="8"/>
-              <color rgb="FF000000"/>
-              <rFont val="Segoe UI"/>
-            </rPr>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c s="12" t="str" r="AF32"/>
-      <c s="13" t="str" r="AG32"/>
     </row>
     <row r="33" ht="28.8" customHeight="0">
       <c s="21" t="str" r="A33"/>
@@ -1407,1155 +1341,899 @@
             </rPr>
             <t xml:space="preserve">Transfer</t>
           </r>
-          <r>
-            <rPr>
-              <b/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="8"/>
-              <color rgb="FF000000"/>
-              <rFont val="Segoe UI"/>
-            </rPr>
-            <t xml:space="preserve">
-(Elimination)</t>
-          </r>
-        </is>
-      </c>
-      <c s="19" t="inlineStr" r="AB33">
-        <is>
-          <t xml:space="preserve">Votes</t>
-        </is>
-      </c>
-      <c s="19" t="inlineStr" r="AC33">
-        <is>
-          <t xml:space="preserve">Percentage</t>
-        </is>
-      </c>
-      <c s="19" t="inlineStr" r="AD33">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="8"/>
-              <color rgb="FF000000"/>
-              <rFont val="Segoe UI"/>
-            </rPr>
-            <t xml:space="preserve">Transfer</t>
-          </r>
-          <r>
-            <rPr>
-              <b/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="8"/>
-              <color rgb="FF000000"/>
-              <rFont val="Segoe UI"/>
-            </rPr>
-            <t xml:space="preserve">
-(Elimination)</t>
-          </r>
-        </is>
-      </c>
-      <c s="19" t="inlineStr" r="AE33">
-        <is>
-          <t xml:space="preserve">Votes</t>
-        </is>
-      </c>
-      <c s="19" t="inlineStr" r="AF33">
-        <is>
-          <t xml:space="preserve">Percentage</t>
-        </is>
-      </c>
-      <c s="19" t="inlineStr" r="AG33">
-        <is>
-          <r>
-            <rPr>
-              <b/>
-              <i val="0"/>
-              <strike val="0"/>
-              <u val="none"/>
-              <sz val="8"/>
-              <color rgb="FF000000"/>
-              <rFont val="Segoe UI"/>
-            </rPr>
-            <t xml:space="preserve">Transfer</t>
-          </r>
         </is>
       </c>
     </row>
     <row r="34" ht="14.4" customHeight="0">
       <c s="14" t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">JORGE SANCHEZ</t>
+          <t xml:space="preserve">MONICA  "MONICA Z" ZOLTANSKI</t>
         </is>
       </c>
       <c s="13" t="str" r="B34"/>
       <c s="23" r="C34">
-        <v>210.00000000000</v>
+        <v>4382.00000000000</v>
       </c>
       <c s="13" t="str" r="D34"/>
       <c s="24" r="E34">
-        <v>0.0150160886664283160529138363</v>
+        <v>0.2070399244034963382943538861</v>
       </c>
       <c s="23" r="F34">
-        <v>10.00000000000</v>
+        <v>208.00000000000</v>
       </c>
       <c s="13" t="str" r="G34"/>
-      <c s="25" r="H34">
-        <v>220.00000000000</v>
-      </c>
-      <c s="26" r="I34">
-        <v>0.0157367668097281831187410587</v>
+      <c s="23" r="H34">
+        <v>4590.00000000000</v>
+      </c>
+      <c s="24" r="I34">
+        <v>0.2193967783566751111323550499</v>
       </c>
       <c s="13" t="str" r="J34"/>
-      <c s="25" r="K34">
-        <v>-220.00000000000</v>
+      <c s="23" r="K34">
+        <v>213.00000000000</v>
       </c>
       <c s="23" r="L34">
-        <v>0.00000000000</v>
+        <v>4803.00000000000</v>
       </c>
       <c s="24" r="M34">
-        <v>0</v>
+        <v>0.2315703196567185767320765633</v>
       </c>
       <c s="23" r="N34">
-        <v>0</v>
+        <v>376.00000000000</v>
       </c>
       <c s="13" t="str" r="O34"/>
       <c s="23" r="P34">
-        <v>0.00000000000</v>
+        <v>5179.00000000000</v>
       </c>
       <c s="24" r="Q34">
-        <v>0</v>
+        <v>0.2545713723948092803775068816</v>
       </c>
       <c s="23" r="R34">
-        <v>0</v>
+        <v>529.00000000000</v>
       </c>
       <c s="23" r="S34">
-        <v>0.00000000000</v>
+        <v>5708.00000000000</v>
       </c>
       <c s="24" r="T34">
-        <v>0</v>
+        <v>0.2913731495661051556916794283</v>
       </c>
       <c s="23" r="U34">
-        <v>0</v>
+        <v>973.00000000000</v>
       </c>
       <c s="23" r="V34">
-        <v>0.00000000000</v>
+        <v>6681.00000000000</v>
       </c>
       <c s="24" r="W34">
-        <v>0</v>
+        <v>0.3596769851951547779273216689</v>
       </c>
       <c s="23" r="X34">
-        <v>0</v>
-      </c>
-      <c s="23" r="Y34">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="Z34">
-        <v>0</v>
-      </c>
-      <c s="23" r="AA34">
-        <v>0</v>
-      </c>
-      <c s="23" r="AB34">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AC34">
-        <v>0</v>
-      </c>
-      <c s="23" r="AD34">
-        <v>0</v>
-      </c>
-      <c s="23" r="AE34">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AF34">
-        <v>0</v>
-      </c>
-      <c s="23" r="AG34">
+        <v>1939.00000000000</v>
+      </c>
+      <c s="25" r="Y34">
+        <v>8620.00000000000</v>
+      </c>
+      <c s="26" r="Z34">
+        <v>0.5006097915093791741680701551</v>
+      </c>
+      <c s="25" r="AA34">
         <v>0</v>
       </c>
     </row>
     <row r="35" ht="14.4" customHeight="0">
       <c s="14" t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">GREGORY Z SMITH</t>
+          <t xml:space="preserve">JIM BENNETT</t>
         </is>
       </c>
       <c s="13" t="str" r="B35"/>
-      <c s="23" r="C35">
-        <v>1433.00000000000</v>
+      <c s="27" r="C35">
+        <v>4130.00000000000</v>
       </c>
       <c s="13" t="str" r="D35"/>
-      <c s="24" r="E35">
-        <v>0.1024669288523417947801215588</v>
-      </c>
-      <c s="23" r="F35">
-        <v>26.00000000000</v>
+      <c s="28" r="E35">
+        <v>0.1951334750767776990314197968</v>
+      </c>
+      <c s="27" r="F35">
+        <v>223.00000000000</v>
       </c>
       <c s="13" t="str" r="G35"/>
-      <c s="23" r="H35">
-        <v>1459.00000000000</v>
-      </c>
-      <c s="24" r="I35">
-        <v>0.1043633762517882689556509299</v>
+      <c s="27" r="H35">
+        <v>4353.00000000000</v>
+      </c>
+      <c s="28" r="I35">
+        <v>0.2080684479709382916686582859</v>
       </c>
       <c s="13" t="str" r="J35"/>
-      <c s="23" r="K35">
-        <v>33.00000000000</v>
-      </c>
-      <c s="23" r="L35">
-        <v>1492.00000000000</v>
-      </c>
-      <c s="24" r="M35">
-        <v>0.1069994262765347102696500287</v>
-      </c>
-      <c s="23" r="N35">
-        <v>43.00000000000</v>
+      <c s="27" r="K35">
+        <v>275.00000000000</v>
+      </c>
+      <c s="27" r="L35">
+        <v>4628.00000000000</v>
+      </c>
+      <c s="28" r="M35">
+        <v>0.2231329251241502338363627598</v>
+      </c>
+      <c s="27" r="N35">
+        <v>536.00000000000</v>
       </c>
       <c s="13" t="str" r="O35"/>
-      <c s="23" r="P35">
-        <v>1535.00000000000</v>
-      </c>
-      <c s="24" r="Q35">
-        <v>0.110511159107271418286537077</v>
-      </c>
-      <c s="23" r="R35">
-        <v>31.00000000000</v>
-      </c>
-      <c s="23" r="S35">
-        <v>1566.00000000000</v>
-      </c>
-      <c s="24" r="T35">
-        <v>0.1131257675359387416022538467</v>
-      </c>
-      <c s="23" r="U35">
-        <v>87.00000000000</v>
-      </c>
-      <c s="23" r="V35">
-        <v>1653.00000000000</v>
-      </c>
-      <c s="24" r="W35">
-        <v>0.1203407105416423995340710542</v>
-      </c>
-      <c s="23" r="X35">
-        <v>200.00000000000</v>
-      </c>
-      <c s="25" r="Y35">
-        <v>1853.00000000000</v>
-      </c>
-      <c s="26" r="Z35">
-        <v>0.1383661887694145758661887694</v>
-      </c>
-      <c s="25" r="AA35">
-        <v>-1853.00000000000</v>
-      </c>
-      <c s="23" r="AB35">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AC35">
-        <v>0</v>
-      </c>
-      <c s="23" r="AD35">
-        <v>0</v>
-      </c>
-      <c s="23" r="AE35">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AF35">
-        <v>0</v>
-      </c>
-      <c s="23" r="AG35">
+      <c s="27" r="P35">
+        <v>5164.00000000000</v>
+      </c>
+      <c s="28" r="Q35">
+        <v>0.2538340542666142351553283523</v>
+      </c>
+      <c s="27" r="R35">
+        <v>632.00000000000</v>
+      </c>
+      <c s="27" r="S35">
+        <v>5796.00000000000</v>
+      </c>
+      <c s="28" r="T35">
+        <v>0.295865237366003062787136294</v>
+      </c>
+      <c s="27" r="U35">
+        <v>799.00000000000</v>
+      </c>
+      <c s="27" r="V35">
+        <v>6595.00000000000</v>
+      </c>
+      <c s="28" r="W35">
+        <v>0.3550471063257065948855989233</v>
+      </c>
+      <c s="27" r="X35">
+        <v>2004.00000000000</v>
+      </c>
+      <c s="29" r="Y35">
+        <v>8599.00000000000</v>
+      </c>
+      <c s="30" r="Z35">
+        <v>0.4993902084906208258319298449</v>
+      </c>
+      <c s="29" r="AA35">
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="14.4" customHeight="0">
       <c s="14" t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">ISABELLA SOLIS</t>
+          <t xml:space="preserve">KRIS NICHOLL</t>
         </is>
       </c>
       <c s="13" t="str" r="B36"/>
-      <c s="23" r="C36">
-        <v>664.00000000000</v>
+      <c s="31" r="C36">
+        <v>2601.00000000000</v>
       </c>
       <c s="13" t="str" r="D36"/>
-      <c s="24" r="E36">
-        <v>0.0474794422595638183768323203</v>
-      </c>
-      <c s="23" r="F36">
-        <v>4.00000000000</v>
+      <c s="32" r="E36">
+        <v>0.1228915662650602409638554217</v>
+      </c>
+      <c s="31" r="F36">
+        <v>125.00000000000</v>
       </c>
       <c s="13" t="str" r="G36"/>
-      <c s="23" r="H36">
-        <v>668.00000000000</v>
-      </c>
-      <c s="24" r="I36">
-        <v>0.0477825464949928469241773963</v>
+      <c s="31" r="H36">
+        <v>2726.00000000000</v>
+      </c>
+      <c s="32" r="I36">
+        <v>0.1302996988671669614263180536</v>
       </c>
       <c s="13" t="str" r="J36"/>
-      <c s="23" r="K36">
-        <v>36.00000000000</v>
-      </c>
-      <c s="23" r="L36">
-        <v>704.00000000000</v>
-      </c>
-      <c s="24" r="M36">
-        <v>0.0504876649454962707974756168</v>
-      </c>
-      <c s="23" r="N36">
-        <v>62.00000000000</v>
+      <c s="31" r="K36">
+        <v>404.00000000000</v>
+      </c>
+      <c s="31" r="L36">
+        <v>3130.00000000000</v>
+      </c>
+      <c s="32" r="M36">
+        <v>0.1509088279253652186490526011</v>
+      </c>
+      <c s="31" r="N36">
+        <v>566.00000000000</v>
       </c>
       <c s="13" t="str" r="O36"/>
-      <c s="23" r="P36">
-        <v>766.00000000000</v>
-      </c>
-      <c s="24" r="Q36">
-        <v>0.0551475881929445644348452124</v>
-      </c>
-      <c s="23" r="R36">
-        <v>39.00000000000</v>
-      </c>
-      <c s="25" r="S36">
-        <v>805.00000000000</v>
-      </c>
-      <c s="26" r="T36">
-        <v>0.058152134652893158997327169</v>
-      </c>
-      <c s="25" r="U36">
-        <v>-805.00000000000</v>
-      </c>
-      <c s="23" r="V36">
+      <c s="31" r="P36">
+        <v>3696.00000000000</v>
+      </c>
+      <c s="32" r="Q36">
+        <v>0.1816751867872591427447896186</v>
+      </c>
+      <c s="31" r="R36">
+        <v>588.00000000000</v>
+      </c>
+      <c s="31" r="S36">
+        <v>4284.00000000000</v>
+      </c>
+      <c s="32" r="T36">
+        <v>0.2186830015313935681470137825</v>
+      </c>
+      <c s="31" r="U36">
+        <v>1015.00000000000</v>
+      </c>
+      <c s="29" r="V36">
+        <v>5299.00000000000</v>
+      </c>
+      <c s="30" r="W36">
+        <v>0.2852759084791386271870794078</v>
+      </c>
+      <c s="29" r="X36">
+        <v>-5299.00000000000</v>
+      </c>
+      <c s="31" r="Y36">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="W36">
-        <v>0</v>
-      </c>
-      <c s="23" r="X36">
-        <v>0</v>
-      </c>
-      <c s="23" r="Y36">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="Z36">
-        <v>0</v>
-      </c>
-      <c s="23" r="AA36">
-        <v>0</v>
-      </c>
-      <c s="23" r="AB36">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AC36">
-        <v>0</v>
-      </c>
-      <c s="23" r="AD36">
-        <v>0</v>
-      </c>
-      <c s="23" r="AE36">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AF36">
-        <v>0</v>
-      </c>
-      <c s="23" r="AG36">
+      <c s="32" r="Z36">
+        <v>0</v>
+      </c>
+      <c s="31" r="AA36">
         <v>0</v>
       </c>
     </row>
     <row r="37" ht="14.4" customHeight="0">
       <c s="14" t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">MIKE A TELLEZ</t>
+          <t xml:space="preserve">MIKE APPLEGARTH</t>
         </is>
       </c>
       <c s="13" t="str" r="B37"/>
-      <c s="23" r="C37">
-        <v>1610.00000000000</v>
+      <c s="31" r="C37">
+        <v>2041.00000000000</v>
       </c>
       <c s="13" t="str" r="D37"/>
-      <c s="24" r="E37">
-        <v>0.1151233464426170897390060779</v>
-      </c>
-      <c s="23" r="F37">
-        <v>6.00000000000</v>
+      <c s="32" r="E37">
+        <v>0.0964327899834632648240018899</v>
+      </c>
+      <c s="31" r="F37">
+        <v>294.00000000000</v>
       </c>
       <c s="13" t="str" r="G37"/>
-      <c s="23" r="H37">
-        <v>1616.00000000000</v>
-      </c>
-      <c s="24" r="I37">
-        <v>0.1155937052932761087267525036</v>
+      <c s="31" r="H37">
+        <v>2335.00000000000</v>
+      </c>
+      <c s="32" r="I37">
+        <v>0.1116103436738205630705989197</v>
       </c>
       <c s="13" t="str" r="J37"/>
-      <c s="23" r="K37">
-        <v>31.00000000000</v>
-      </c>
-      <c s="23" r="L37">
-        <v>1647.00000000000</v>
-      </c>
-      <c s="24" r="M37">
-        <v>0.1181153184165232358003442341</v>
-      </c>
-      <c s="23" r="N37">
-        <v>50.00000000000</v>
+      <c s="31" r="K37">
+        <v>232.00000000000</v>
+      </c>
+      <c s="29" r="L37">
+        <v>2567.00000000000</v>
+      </c>
+      <c s="30" r="M37">
+        <v>0.1237645243720167783616990502</v>
+      </c>
+      <c s="29" r="N37">
+        <v>-2567.00000000000</v>
       </c>
       <c s="13" t="str" r="O37"/>
-      <c s="23" r="P37">
-        <v>1697.00000000000</v>
-      </c>
-      <c s="24" r="Q37">
-        <v>0.1221742260619150467962562995</v>
-      </c>
-      <c s="23" r="R37">
-        <v>276.00000000000</v>
-      </c>
-      <c s="23" r="S37">
-        <v>1973.00000000000</v>
-      </c>
-      <c s="24" r="T37">
-        <v>0.1425269089070288232319583905</v>
-      </c>
-      <c s="23" r="U37">
-        <v>197.00000000000</v>
-      </c>
-      <c s="23" r="V37">
-        <v>2170.00000000000</v>
-      </c>
-      <c s="24" r="W37">
-        <v>0.1579790331974373907979033197</v>
-      </c>
-      <c s="23" r="X37">
-        <v>275.00000000000</v>
-      </c>
-      <c s="23" r="Y37">
-        <v>2445.00000000000</v>
-      </c>
-      <c s="24" r="Z37">
-        <v>0.1825716845878136200716845878</v>
-      </c>
-      <c s="23" r="AA37">
-        <v>277.00000000000</v>
-      </c>
-      <c s="25" r="AB37">
-        <v>2722.00000000000</v>
-      </c>
-      <c s="26" r="AC37">
-        <v>0.2090308708339732759944708954</v>
-      </c>
-      <c s="25" r="AD37">
-        <v>-2722.00000000000</v>
-      </c>
-      <c s="23" r="AE37">
+      <c s="31" r="P37">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="AF37">
-        <v>0</v>
-      </c>
-      <c s="23" r="AG37">
+      <c s="32" r="Q37">
+        <v>0</v>
+      </c>
+      <c s="31" r="R37">
+        <v>0</v>
+      </c>
+      <c s="31" r="S37">
+        <v>0.00000000000</v>
+      </c>
+      <c s="32" r="T37">
+        <v>0</v>
+      </c>
+      <c s="31" r="U37">
+        <v>0</v>
+      </c>
+      <c s="31" r="V37">
+        <v>0.00000000000</v>
+      </c>
+      <c s="32" r="W37">
+        <v>0</v>
+      </c>
+      <c s="31" r="X37">
+        <v>0</v>
+      </c>
+      <c s="31" r="Y37">
+        <v>0.00000000000</v>
+      </c>
+      <c s="32" r="Z37">
+        <v>0</v>
+      </c>
+      <c s="31" r="AA37">
         <v>0</v>
       </c>
     </row>
     <row r="38" ht="14.4" customHeight="0">
       <c s="14" t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">BEV COURTNEY</t>
+          <t xml:space="preserve">LINDA SAVILLE</t>
         </is>
       </c>
       <c s="13" t="str" r="B38"/>
-      <c s="23" r="C38">
-        <v>492.00000000000</v>
+      <c s="31" r="C38">
+        <v>2503.00000000000</v>
       </c>
       <c s="13" t="str" r="D38"/>
-      <c s="24" r="E38">
-        <v>0.0351805505899177690382552735</v>
-      </c>
-      <c s="23" r="F38">
-        <v>3.00000000000</v>
+      <c s="32" r="E38">
+        <v>0.1182612804157807701393810536</v>
+      </c>
+      <c s="31" r="F38">
+        <v>63.00000000000</v>
       </c>
       <c s="13" t="str" r="G38"/>
-      <c s="23" r="H38">
-        <v>495.00000000000</v>
-      </c>
-      <c s="24" r="I38">
-        <v>0.035407725321888412017167382</v>
+      <c s="31" r="H38">
+        <v>2566.00000000000</v>
+      </c>
+      <c s="32" r="I38">
+        <v>0.1226518808852349314086324745</v>
       </c>
       <c s="13" t="str" r="J38"/>
-      <c s="23" r="K38">
-        <v>7.00000000000</v>
-      </c>
-      <c s="23" r="L38">
-        <v>502.00000000000</v>
-      </c>
-      <c s="24" r="M38">
-        <v>0.0360011474469305794606999426</v>
-      </c>
-      <c s="23" r="N38">
-        <v>37.00000000000</v>
+      <c s="31" r="K38">
+        <v>172.00000000000</v>
+      </c>
+      <c s="31" r="L38">
+        <v>2738.00000000000</v>
+      </c>
+      <c s="32" r="M38">
+        <v>0.1320090641724121305626536811</v>
+      </c>
+      <c s="31" r="N38">
+        <v>254.00000000000</v>
       </c>
       <c s="13" t="str" r="O38"/>
-      <c s="25" r="P38">
-        <v>539.00000000000</v>
-      </c>
-      <c s="26" r="Q38">
-        <v>0.0388048956083513318934485241</v>
-      </c>
-      <c s="25" r="R38">
-        <v>-539.00000000000</v>
-      </c>
-      <c s="23" r="S38">
+      <c s="29" r="P38">
+        <v>2992.00000000000</v>
+      </c>
+      <c s="30" r="Q38">
+        <v>0.1470703893039716869838773103</v>
+      </c>
+      <c s="29" r="R38">
+        <v>-2992.00000000000</v>
+      </c>
+      <c s="31" r="S38">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="T38">
-        <v>0</v>
-      </c>
-      <c s="23" r="U38">
-        <v>0</v>
-      </c>
-      <c s="23" r="V38">
+      <c s="32" r="T38">
+        <v>0</v>
+      </c>
+      <c s="31" r="U38">
+        <v>0</v>
+      </c>
+      <c s="31" r="V38">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="W38">
-        <v>0</v>
-      </c>
-      <c s="23" r="X38">
-        <v>0</v>
-      </c>
-      <c s="23" r="Y38">
+      <c s="32" r="W38">
+        <v>0</v>
+      </c>
+      <c s="31" r="X38">
+        <v>0</v>
+      </c>
+      <c s="31" r="Y38">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="Z38">
-        <v>0</v>
-      </c>
-      <c s="23" r="AA38">
-        <v>0</v>
-      </c>
-      <c s="23" r="AB38">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AC38">
-        <v>0</v>
-      </c>
-      <c s="23" r="AD38">
-        <v>0</v>
-      </c>
-      <c s="23" r="AE38">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AF38">
-        <v>0</v>
-      </c>
-      <c s="23" r="AG38">
+      <c s="32" r="Z38">
+        <v>0</v>
+      </c>
+      <c s="31" r="AA38">
         <v>0</v>
       </c>
     </row>
     <row r="39" ht="14.4" customHeight="0">
       <c s="14" t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">ALEXANDER PAIGE FRESQUEZ</t>
+          <t xml:space="preserve">RONALD T. JONES</t>
         </is>
       </c>
       <c s="13" t="str" r="B39"/>
-      <c s="25" r="C39">
-        <v>106.00000000000</v>
+      <c s="29" r="C39">
+        <v>1440.00000000000</v>
       </c>
       <c s="13" t="str" r="D39"/>
-      <c s="26" r="E39">
-        <v>0.0075795495173400071505184126</v>
-      </c>
-      <c s="25" r="F39">
-        <v>-106.00000000000</v>
+      <c s="30" r="E39">
+        <v>0.0680368532955350815024805103</v>
+      </c>
+      <c s="29" r="F39">
+        <v>-1440.00000000000</v>
       </c>
       <c s="13" t="str" r="G39"/>
-      <c s="23" r="H39">
+      <c s="31" r="H39">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="I39">
+      <c s="32" r="I39">
         <v>0</v>
       </c>
       <c s="13" t="str" r="J39"/>
-      <c s="23" r="K39">
-        <v>0</v>
-      </c>
-      <c s="23" r="L39">
+      <c s="31" r="K39">
+        <v>0</v>
+      </c>
+      <c s="31" r="L39">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="M39">
-        <v>0</v>
-      </c>
-      <c s="23" r="N39">
+      <c s="32" r="M39">
+        <v>0</v>
+      </c>
+      <c s="31" r="N39">
         <v>0</v>
       </c>
       <c s="13" t="str" r="O39"/>
-      <c s="23" r="P39">
+      <c s="31" r="P39">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="Q39">
-        <v>0</v>
-      </c>
-      <c s="23" r="R39">
-        <v>0</v>
-      </c>
-      <c s="23" r="S39">
+      <c s="32" r="Q39">
+        <v>0</v>
+      </c>
+      <c s="31" r="R39">
+        <v>0</v>
+      </c>
+      <c s="31" r="S39">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="T39">
-        <v>0</v>
-      </c>
-      <c s="23" r="U39">
-        <v>0</v>
-      </c>
-      <c s="23" r="V39">
+      <c s="32" r="T39">
+        <v>0</v>
+      </c>
+      <c s="31" r="U39">
+        <v>0</v>
+      </c>
+      <c s="31" r="V39">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="W39">
-        <v>0</v>
-      </c>
-      <c s="23" r="X39">
-        <v>0</v>
-      </c>
-      <c s="23" r="Y39">
+      <c s="32" r="W39">
+        <v>0</v>
+      </c>
+      <c s="31" r="X39">
+        <v>0</v>
+      </c>
+      <c s="31" r="Y39">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="Z39">
-        <v>0</v>
-      </c>
-      <c s="23" r="AA39">
-        <v>0</v>
-      </c>
-      <c s="23" r="AB39">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AC39">
-        <v>0</v>
-      </c>
-      <c s="23" r="AD39">
-        <v>0</v>
-      </c>
-      <c s="23" r="AE39">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AF39">
-        <v>0</v>
-      </c>
-      <c s="23" r="AG39">
+      <c s="32" r="Z39">
+        <v>0</v>
+      </c>
+      <c s="31" r="AA39">
         <v>0</v>
       </c>
     </row>
     <row r="40" ht="14.4" customHeight="0">
       <c s="14" t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">JESUSITA DOLORES LUCERO</t>
+          <t xml:space="preserve">BROOKE CHRISTENSEN</t>
         </is>
       </c>
       <c s="13" t="str" r="B40"/>
-      <c s="23" r="C40">
-        <v>426.00000000000</v>
+      <c s="31" r="C40">
+        <v>2338.00000000000</v>
       </c>
       <c s="13" t="str" r="D40"/>
-      <c s="24" r="E40">
-        <v>0.0304612084376117268501966393</v>
-      </c>
-      <c s="23" r="F40">
-        <v>10.00000000000</v>
+      <c s="32" r="E40">
+        <v>0.1104653909756673753838884952</v>
+      </c>
+      <c s="31" r="F40">
+        <v>208.00000000000</v>
       </c>
       <c s="13" t="str" r="G40"/>
-      <c s="23" r="H40">
-        <v>436.00000000000</v>
-      </c>
-      <c s="24" r="I40">
-        <v>0.0311874105865522174535050072</v>
+      <c s="31" r="H40">
+        <v>2546.00000000000</v>
+      </c>
+      <c s="32" r="I40">
+        <v>0.1216959036374934276564217772</v>
       </c>
       <c s="13" t="str" r="J40"/>
-      <c s="23" r="K40">
-        <v>6.00000000000</v>
-      </c>
-      <c s="25" r="L40">
-        <v>442.00000000000</v>
-      </c>
-      <c s="26" r="M40">
-        <v>0.0316982214572576018359150889</v>
-      </c>
-      <c s="25" r="N40">
-        <v>-442.00000000000</v>
+      <c s="31" r="K40">
+        <v>329.00000000000</v>
+      </c>
+      <c s="31" r="L40">
+        <v>2875.00000000000</v>
+      </c>
+      <c s="32" r="M40">
+        <v>0.1386143387493370618581553445</v>
+      </c>
+      <c s="31" r="N40">
+        <v>438.00000000000</v>
       </c>
       <c s="13" t="str" r="O40"/>
-      <c s="23" r="P40">
+      <c s="31" r="P40">
+        <v>3313.00000000000</v>
+      </c>
+      <c s="32" r="Q40">
+        <v>0.1628489972473456547384978372</v>
+      </c>
+      <c s="31" r="R40">
+        <v>489.00000000000</v>
+      </c>
+      <c s="29" r="S40">
+        <v>3802.00000000000</v>
+      </c>
+      <c s="30" r="T40">
+        <v>0.1940786115364982133741704952</v>
+      </c>
+      <c s="29" r="U40">
+        <v>-3802.00000000000</v>
+      </c>
+      <c s="31" r="V40">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="Q40">
-        <v>0</v>
-      </c>
-      <c s="23" r="R40">
-        <v>0</v>
-      </c>
-      <c s="23" r="S40">
+      <c s="32" r="W40">
+        <v>0</v>
+      </c>
+      <c s="31" r="X40">
+        <v>0</v>
+      </c>
+      <c s="31" r="Y40">
         <v>0.00000000000</v>
       </c>
-      <c s="24" r="T40">
-        <v>0</v>
-      </c>
-      <c s="23" r="U40">
-        <v>0</v>
-      </c>
-      <c s="23" r="V40">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="W40">
-        <v>0</v>
-      </c>
-      <c s="23" r="X40">
-        <v>0</v>
-      </c>
-      <c s="23" r="Y40">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="Z40">
-        <v>0</v>
-      </c>
-      <c s="23" r="AA40">
-        <v>0</v>
-      </c>
-      <c s="23" r="AB40">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AC40">
-        <v>0</v>
-      </c>
-      <c s="23" r="AD40">
-        <v>0</v>
-      </c>
-      <c s="23" r="AE40">
-        <v>0.00000000000</v>
-      </c>
-      <c s="24" r="AF40">
-        <v>0</v>
-      </c>
-      <c s="23" r="AG40">
+      <c s="32" r="Z40">
+        <v>0</v>
+      </c>
+      <c s="31" r="AA40">
         <v>0</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="0">
       <c s="14" t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">WILLIAM BILL MATTIACE</t>
+          <t xml:space="preserve">MARCI HOUSEMAN</t>
         </is>
       </c>
       <c s="13" t="str" r="B41"/>
-      <c s="23" r="C41">
-        <v>2725.00000000000</v>
+      <c s="31" r="C41">
+        <v>1730.00000000000</v>
       </c>
       <c s="13" t="str" r="D41"/>
-      <c s="24" r="E41">
-        <v>0.194851626742938863067572399</v>
-      </c>
-      <c s="23" r="F41">
-        <v>7.00000000000</v>
+      <c s="32" r="E41">
+        <v>0.0817387195842192298606189464</v>
+      </c>
+      <c s="31" r="F41">
+        <v>75.00000000000</v>
       </c>
       <c s="13" t="str" r="G41"/>
-      <c s="23" r="H41">
-        <v>2732.00000000000</v>
-      </c>
-      <c s="24" r="I41">
-        <v>0.1954220314735336194563662375</v>
+      <c s="29" r="H41">
+        <v>1805.00000000000</v>
+      </c>
+      <c s="30" r="I41">
+        <v>0.086276946608670713637015439</v>
       </c>
       <c s="13" t="str" r="J41"/>
-      <c s="23" r="K41">
-        <v>15.00000000000</v>
-      </c>
-      <c s="23" r="L41">
-        <v>2747.00000000000</v>
-      </c>
-      <c s="24" r="M41">
-        <v>0.1970022948938611589213998853</v>
-      </c>
-      <c s="23" r="N41">
-        <v>82.00000000000</v>
+      <c s="29" r="K41">
+        <v>-1805.00000000000</v>
+      </c>
+      <c s="31" r="L41">
+        <v>0.00000000000</v>
+      </c>
+      <c s="32" r="M41">
+        <v>0</v>
+      </c>
+      <c s="31" r="N41">
+        <v>0</v>
       </c>
       <c s="13" t="str" r="O41"/>
-      <c s="23" r="P41">
-        <v>2829.00000000000</v>
-      </c>
-      <c s="24" r="Q41">
-        <v>0.2036717062634989200863930886</v>
-      </c>
-      <c s="23" r="R41">
-        <v>82.00000000000</v>
-      </c>
-      <c s="23" r="S41">
-        <v>2911.00000000000</v>
-      </c>
-      <c s="24" r="T41">
-        <v>0.2102867875460521563244961352</v>
-      </c>
-      <c s="23" r="U41">
-        <v>155.00000000000</v>
-      </c>
-      <c s="23" r="V41">
-        <v>3066.00000000000</v>
-      </c>
-      <c s="24" r="W41">
-        <v>0.2232090856144437973209085614</v>
-      </c>
-      <c s="23" r="X41">
-        <v>296.00000000000</v>
-      </c>
-      <c s="23" r="Y41">
-        <v>3362.00000000000</v>
-      </c>
-      <c s="24" r="Z41">
-        <v>0.2510454002389486260454002389</v>
-      </c>
-      <c s="23" r="AA41">
-        <v>472.00000000000</v>
-      </c>
-      <c s="23" r="AB41">
-        <v>3834.00000000000</v>
-      </c>
-      <c s="24" r="AC41">
-        <v>0.2944248195361695592074950084</v>
-      </c>
-      <c s="23" r="AD41">
-        <v>1723.00000000000</v>
-      </c>
-      <c s="25" r="AE41">
-        <v>5557.00000000000</v>
-      </c>
-      <c s="26" r="AF41">
-        <v>0.4491956996200792175248565193</v>
-      </c>
-      <c s="25" r="AG41">
+      <c s="31" r="P41">
+        <v>0.00000000000</v>
+      </c>
+      <c s="32" r="Q41">
+        <v>0</v>
+      </c>
+      <c s="31" r="R41">
+        <v>0</v>
+      </c>
+      <c s="31" r="S41">
+        <v>0.00000000000</v>
+      </c>
+      <c s="32" r="T41">
+        <v>0</v>
+      </c>
+      <c s="31" r="U41">
+        <v>0</v>
+      </c>
+      <c s="31" r="V41">
+        <v>0.00000000000</v>
+      </c>
+      <c s="32" r="W41">
+        <v>0</v>
+      </c>
+      <c s="31" r="X41">
+        <v>0</v>
+      </c>
+      <c s="31" r="Y41">
+        <v>0.00000000000</v>
+      </c>
+      <c s="32" r="Z41">
+        <v>0</v>
+      </c>
+      <c s="31" r="AA41">
         <v>0</v>
       </c>
     </row>
     <row r="42" ht="14.4" customHeight="0">
-      <c s="14" t="inlineStr" r="A42">
-        <is>
-          <t xml:space="preserve">KEN MIYAGISHIMA</t>
+      <c s="33" t="inlineStr" r="A42">
+        <is>
+          <t xml:space="preserve">Continuing Ballots Total</t>
         </is>
       </c>
       <c s="13" t="str" r="B42"/>
-      <c s="27" r="C42">
-        <v>5172.00000000000</v>
+      <c s="34" r="C42">
+        <v>21165.00000000000</v>
       </c>
       <c s="13" t="str" r="D42"/>
-      <c s="28" r="E42">
-        <v>0.3698248122988916696460493386</v>
-      </c>
-      <c s="27" r="F42">
-        <v>24.00000000000</v>
+      <c s="35" t="inlineStr" r="E42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="35" t="inlineStr" r="F42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="13" t="str" r="G42"/>
-      <c s="27" r="H42">
-        <v>5196.00000000000</v>
-      </c>
-      <c s="28" r="I42">
-        <v>0.3716738197424892703862660944</v>
+      <c s="34" r="H42">
+        <v>20921.00000000000</v>
+      </c>
+      <c s="35" t="inlineStr" r="I42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="13" t="str" r="J42"/>
-      <c s="27" r="K42">
-        <v>36.00000000000</v>
-      </c>
-      <c s="27" r="L42">
-        <v>5232.00000000000</v>
-      </c>
-      <c s="28" r="M42">
-        <v>0.3752151462994836488812392427</v>
-      </c>
-      <c s="27" r="N42">
-        <v>52.00000000000</v>
+      <c s="35" t="inlineStr" r="K42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="34" r="L42">
+        <v>20741.00000000000</v>
+      </c>
+      <c s="35" t="inlineStr" r="M42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="35" t="inlineStr" r="N42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="13" t="str" r="O42"/>
-      <c s="27" r="P42">
-        <v>5284.00000000000</v>
-      </c>
-      <c s="28" r="Q42">
-        <v>0.3804175665946724262059035277</v>
-      </c>
-      <c s="27" r="R42">
-        <v>30.00000000000</v>
-      </c>
-      <c s="27" r="S42">
-        <v>5314.00000000000</v>
-      </c>
-      <c s="28" r="T42">
-        <v>0.3838763273856822943003684173</v>
-      </c>
-      <c s="27" r="U42">
-        <v>106.00000000000</v>
-      </c>
-      <c s="27" r="V42">
-        <v>5420.00000000000</v>
-      </c>
-      <c s="28" r="W42">
-        <v>0.3945835760046592894583576005</v>
-      </c>
-      <c s="27" r="X42">
-        <v>312.00000000000</v>
-      </c>
-      <c s="27" r="Y42">
-        <v>5732.00000000000</v>
-      </c>
-      <c s="28" r="Z42">
-        <v>0.4280167264038231780167264038</v>
-      </c>
-      <c s="27" r="AA42">
-        <v>734.00000000000</v>
-      </c>
-      <c s="27" r="AB42">
-        <v>6466.00000000000</v>
-      </c>
-      <c s="28" r="AC42">
-        <v>0.4965443096298571647980340961</v>
-      </c>
-      <c s="27" r="AD42">
-        <v>348.00000000000</v>
-      </c>
-      <c s="29" r="AE42">
-        <v>6814.00000000000</v>
-      </c>
-      <c s="30" r="AF42">
-        <v>0.5508043003799207824751434807</v>
-      </c>
-      <c s="29" r="AG42">
-        <v>0</v>
+      <c s="34" r="P42">
+        <v>20344.00000000000</v>
+      </c>
+      <c s="35" t="inlineStr" r="Q42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="35" t="inlineStr" r="R42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="34" r="S42">
+        <v>19590.00000000000</v>
+      </c>
+      <c s="35" t="inlineStr" r="T42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="35" t="inlineStr" r="U42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="34" r="V42">
+        <v>18575.00000000000</v>
+      </c>
+      <c s="35" t="inlineStr" r="W42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="35" t="inlineStr" r="X42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="34" r="Y42">
+        <v>17219.00000000000</v>
+      </c>
+      <c s="35" t="inlineStr" r="Z42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="35" t="inlineStr" r="AA42">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
     </row>
     <row r="43" ht="14.4" customHeight="0">
-      <c s="14" t="inlineStr" r="A43">
-        <is>
-          <t xml:space="preserve">EUGENIA (GINA) MONTOYA ORTEGA</t>
+      <c s="36" t="inlineStr" r="A43">
+        <is>
+          <t xml:space="preserve">Blanks</t>
         </is>
       </c>
       <c s="13" t="str" r="B43"/>
-      <c s="31" r="C43">
-        <v>1147.00000000000</v>
+      <c s="37" r="C43">
+        <v>53.00000000000</v>
       </c>
       <c s="13" t="str" r="D43"/>
-      <c s="32" r="E43">
-        <v>0.0820164461923489452985341437</v>
-      </c>
-      <c s="31" r="F43">
-        <v>11.00000000000</v>
+      <c s="38" t="inlineStr" r="E43">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="F43">
+        <v>0</v>
       </c>
       <c s="13" t="str" r="G43"/>
-      <c s="31" r="H43">
-        <v>1158.00000000000</v>
-      </c>
-      <c s="32" r="I43">
-        <v>0.0828326180257510729613733906</v>
+      <c s="37" r="H43">
+        <v>53.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="I43">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="13" t="str" r="J43"/>
-      <c s="31" r="K43">
-        <v>20.00000000000</v>
-      </c>
-      <c s="31" r="L43">
-        <v>1178.00000000000</v>
-      </c>
-      <c s="32" r="M43">
-        <v>0.084480780263912794033275961</v>
-      </c>
-      <c s="31" r="N43">
-        <v>62.00000000000</v>
+      <c s="39" r="K43">
+        <v>0</v>
+      </c>
+      <c s="37" r="L43">
+        <v>53.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="M43">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="N43">
+        <v>0</v>
       </c>
       <c s="13" t="str" r="O43"/>
-      <c s="31" r="P43">
-        <v>1240.00000000000</v>
-      </c>
-      <c s="32" r="Q43">
-        <v>0.0892728581713462922966162707</v>
-      </c>
-      <c s="31" r="R43">
-        <v>34.00000000000</v>
-      </c>
-      <c s="31" r="S43">
-        <v>1274.00000000000</v>
-      </c>
-      <c s="32" r="T43">
-        <v>0.0920320739724048255435960413</v>
-      </c>
-      <c s="31" r="U43">
-        <v>153.00000000000</v>
-      </c>
-      <c s="25" r="V43">
-        <v>1427.00000000000</v>
-      </c>
-      <c s="26" r="W43">
-        <v>0.1038875946418171228887594642</v>
-      </c>
-      <c s="25" r="X43">
-        <v>-1427.00000000000</v>
-      </c>
-      <c s="31" r="Y43">
+      <c s="37" r="P43">
+        <v>53.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="Q43">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="R43">
+        <v>0</v>
+      </c>
+      <c s="37" r="S43">
+        <v>53.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="T43">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="U43">
+        <v>0</v>
+      </c>
+      <c s="37" r="V43">
+        <v>53.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="W43">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="X43">
+        <v>0</v>
+      </c>
+      <c s="37" r="Y43">
+        <v>53.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="Z43">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="AA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="14.4" customHeight="0">
+      <c s="36" t="inlineStr" r="A44">
+        <is>
+          <t xml:space="preserve">Exhausted</t>
+        </is>
+      </c>
+      <c s="13" t="str" r="B44"/>
+      <c s="37" r="C44">
         <v>0.00000000000</v>
       </c>
-      <c s="32" r="Z43">
-        <v>0</v>
-      </c>
-      <c s="31" r="AA43">
-        <v>0</v>
-      </c>
-      <c s="31" r="AB43">
-        <v>0.00000000000</v>
-      </c>
-      <c s="32" r="AC43">
-        <v>0</v>
-      </c>
-      <c s="31" r="AD43">
-        <v>0</v>
-      </c>
-      <c s="31" r="AE43">
-        <v>0.00000000000</v>
-      </c>
-      <c s="32" r="AF43">
-        <v>0</v>
-      </c>
-      <c s="31" r="AG43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.4" customHeight="0">
-      <c s="33" t="inlineStr" r="A44">
-        <is>
-          <t xml:space="preserve">Continuing Ballots Total</t>
-        </is>
-      </c>
-      <c s="13" t="str" r="B44"/>
-      <c s="34" r="C44">
-        <v>13985.00000000000</v>
-      </c>
       <c s="13" t="str" r="D44"/>
-      <c s="35" t="inlineStr" r="E44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="35" t="inlineStr" r="F44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="38" t="inlineStr" r="E44">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="F44">
+        <v>244.00000000000</v>
       </c>
       <c s="13" t="str" r="G44"/>
-      <c s="34" r="H44">
-        <v>13980.00000000000</v>
-      </c>
-      <c s="35" t="inlineStr" r="I44">
+      <c s="37" r="H44">
+        <v>244.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="I44">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
       <c s="13" t="str" r="J44"/>
-      <c s="35" t="inlineStr" r="K44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" r="L44">
-        <v>13944.00000000000</v>
-      </c>
-      <c s="35" t="inlineStr" r="M44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="35" t="inlineStr" r="N44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="39" r="K44">
+        <v>176.00000000000</v>
+      </c>
+      <c s="37" r="L44">
+        <v>420.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="M44">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="N44">
+        <v>396.00000000000</v>
       </c>
       <c s="13" t="str" r="O44"/>
-      <c s="34" r="P44">
-        <v>13890.00000000000</v>
-      </c>
-      <c s="35" t="inlineStr" r="Q44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="35" t="inlineStr" r="R44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" r="S44">
-        <v>13843.00000000000</v>
-      </c>
-      <c s="35" t="inlineStr" r="T44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="35" t="inlineStr" r="U44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" r="V44">
-        <v>13736.00000000000</v>
-      </c>
-      <c s="35" t="inlineStr" r="W44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="35" t="inlineStr" r="X44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" r="Y44">
-        <v>13392.00000000000</v>
-      </c>
-      <c s="35" t="inlineStr" r="Z44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="35" t="inlineStr" r="AA44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" r="AB44">
-        <v>13022.00000000000</v>
-      </c>
-      <c s="35" t="inlineStr" r="AC44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="35" t="inlineStr" r="AD44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="34" r="AE44">
-        <v>12371.00000000000</v>
-      </c>
-      <c s="35" t="inlineStr" r="AF44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="35" t="inlineStr" r="AG44">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
+      <c s="37" r="P44">
+        <v>816.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="Q44">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="R44">
+        <v>753.00000000000</v>
+      </c>
+      <c s="37" r="S44">
+        <v>1569.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="T44">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="U44">
+        <v>1009.00000000000</v>
+      </c>
+      <c s="37" r="V44">
+        <v>2578.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="W44">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="X44">
+        <v>1352.00000000000</v>
+      </c>
+      <c s="37" r="Y44">
+        <v>3930.00000000000</v>
+      </c>
+      <c s="38" t="inlineStr" r="Z44">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="39" r="AA44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="14.4" customHeight="0">
       <c s="36" t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Blanks</t>
+          <t xml:space="preserve">Overvotes</t>
         </is>
       </c>
       <c s="13" t="str" r="B45"/>
       <c s="37" r="C45">
-        <v>49.00000000000</v>
+        <v>28.00000000000</v>
       </c>
       <c s="13" t="str" r="D45"/>
       <c s="38" t="inlineStr" r="E45">
@@ -2568,7 +2246,7 @@
       </c>
       <c s="13" t="str" r="G45"/>
       <c s="37" r="H45">
-        <v>49.00000000000</v>
+        <v>28.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="I45">
         <is>
@@ -2577,10 +2255,10 @@
       </c>
       <c s="13" t="str" r="J45"/>
       <c s="39" r="K45">
-        <v>0</v>
+        <v>4.00000000000</v>
       </c>
       <c s="37" r="L45">
-        <v>49.00000000000</v>
+        <v>32.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="M45">
         <is>
@@ -2588,11 +2266,11 @@
         </is>
       </c>
       <c s="39" r="N45">
-        <v>0</v>
+        <v>1.00000000000</v>
       </c>
       <c s="13" t="str" r="O45"/>
       <c s="37" r="P45">
-        <v>49.00000000000</v>
+        <v>33.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="Q45">
         <is>
@@ -2600,10 +2278,10 @@
         </is>
       </c>
       <c s="39" r="R45">
-        <v>0</v>
+        <v>1.00000000000</v>
       </c>
       <c s="37" r="S45">
-        <v>49.00000000000</v>
+        <v>34.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="T45">
         <is>
@@ -2611,10 +2289,10 @@
         </is>
       </c>
       <c s="39" r="U45">
-        <v>0</v>
+        <v>6.00000000000</v>
       </c>
       <c s="37" r="V45">
-        <v>49.00000000000</v>
+        <v>40.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="W45">
         <is>
@@ -2622,10 +2300,10 @@
         </is>
       </c>
       <c s="39" r="X45">
-        <v>0</v>
+        <v>4.00000000000</v>
       </c>
       <c s="37" r="Y45">
-        <v>49.00000000000</v>
+        <v>44.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="Z45">
         <is>
@@ -2635,38 +2313,16 @@
       <c s="39" r="AA45">
         <v>0</v>
       </c>
-      <c s="37" r="AB45">
-        <v>49.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="AC45">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="39" r="AD45">
-        <v>0</v>
-      </c>
-      <c s="37" r="AE45">
-        <v>49.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="AF45">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="39" r="AG45">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" ht="14.4" customHeight="0">
-      <c s="36" t="inlineStr" r="A46">
-        <is>
-          <t xml:space="preserve">Exhausted</t>
+      <c s="40" t="inlineStr" r="A46">
+        <is>
+          <t xml:space="preserve">Non Transferable Total</t>
         </is>
       </c>
       <c s="13" t="str" r="B46"/>
-      <c s="37" r="C46">
-        <v>0.00000000000</v>
+      <c s="41" r="C46">
+        <v>81.00000000000</v>
       </c>
       <c s="13" t="str" r="D46"/>
       <c s="38" t="inlineStr" r="E46">
@@ -2674,12 +2330,14 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="F46">
-        <v>5.00000000000</v>
+      <c s="36" t="inlineStr" r="F46">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="13" t="str" r="G46"/>
-      <c s="37" r="H46">
-        <v>5.00000000000</v>
+      <c s="41" r="H46">
+        <v>325.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="I46">
         <is>
@@ -2687,97 +2345,87 @@
         </is>
       </c>
       <c s="13" t="str" r="J46"/>
-      <c s="39" r="K46">
-        <v>35.00000000000</v>
-      </c>
-      <c s="37" r="L46">
-        <v>40.00000000000</v>
+      <c s="36" t="inlineStr" r="K46">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="41" r="L46">
+        <v>505.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="M46">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="N46">
-        <v>51.00000000000</v>
+      <c s="36" t="inlineStr" r="N46">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="13" t="str" r="O46"/>
-      <c s="37" r="P46">
-        <v>91.00000000000</v>
+      <c s="41" r="P46">
+        <v>902.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="Q46">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="R46">
-        <v>44.00000000000</v>
-      </c>
-      <c s="37" r="S46">
-        <v>135.00000000000</v>
+      <c s="36" t="inlineStr" r="R46">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="41" r="S46">
+        <v>1656.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="T46">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="U46">
-        <v>104.00000000000</v>
-      </c>
-      <c s="37" r="V46">
-        <v>239.00000000000</v>
+      <c s="36" t="inlineStr" r="U46">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="41" r="V46">
+        <v>2671.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="W46">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="X46">
-        <v>335.00000000000</v>
-      </c>
-      <c s="37" r="Y46">
-        <v>574.00000000000</v>
+      <c s="36" t="inlineStr" r="X46">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+      <c s="41" r="Y46">
+        <v>4027.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="Z46">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="AA46">
-        <v>354.00000000000</v>
-      </c>
-      <c s="37" r="AB46">
-        <v>928.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="AC46">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="39" r="AD46">
-        <v>616.00000000000</v>
-      </c>
-      <c s="37" r="AE46">
-        <v>1544.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="AF46">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="39" r="AG46">
-        <v>0</v>
+      <c s="36" t="inlineStr" r="AA46">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
     </row>
     <row r="47" ht="14.4" customHeight="0">
       <c s="36" t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Overvotes</t>
+          <t xml:space="preserve">Threshold</t>
         </is>
       </c>
       <c s="13" t="str" r="B47"/>
       <c s="37" r="C47">
-        <v>122.00000000000</v>
+        <v>10583.00000000000</v>
       </c>
       <c s="13" t="str" r="D47"/>
       <c s="38" t="inlineStr" r="E47">
@@ -2785,12 +2433,14 @@
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="F47">
-        <v>0</v>
+      <c s="36" t="inlineStr" r="F47">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="13" t="str" r="G47"/>
       <c s="37" r="H47">
-        <v>122.00000000000</v>
+        <v>10461.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="I47">
         <is>
@@ -2798,354 +2448,86 @@
         </is>
       </c>
       <c s="13" t="str" r="J47"/>
-      <c s="39" r="K47">
-        <v>1.00000000000</v>
+      <c s="36" t="inlineStr" r="K47">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="37" r="L47">
-        <v>123.00000000000</v>
+        <v>10371.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="M47">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="N47">
-        <v>3.00000000000</v>
+      <c s="36" t="inlineStr" r="N47">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="13" t="str" r="O47"/>
       <c s="37" r="P47">
-        <v>126.00000000000</v>
+        <v>10173.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="Q47">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="R47">
-        <v>3.00000000000</v>
+      <c s="36" t="inlineStr" r="R47">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="37" r="S47">
-        <v>129.00000000000</v>
+        <v>9796.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="T47">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="U47">
-        <v>3.00000000000</v>
+      <c s="36" t="inlineStr" r="U47">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="37" r="V47">
-        <v>132.00000000000</v>
+        <v>9288.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="W47">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="X47">
-        <v>9.00000000000</v>
+      <c s="36" t="inlineStr" r="X47">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
       </c>
       <c s="37" r="Y47">
-        <v>141.00000000000</v>
+        <v>8610.00000000000</v>
       </c>
       <c s="38" t="inlineStr" r="Z47">
         <is>
           <t xml:space="preserve"/>
         </is>
       </c>
-      <c s="39" r="AA47">
-        <v>16.00000000000</v>
-      </c>
-      <c s="37" r="AB47">
-        <v>157.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="AC47">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="39" r="AD47">
-        <v>35.00000000000</v>
-      </c>
-      <c s="37" r="AE47">
-        <v>192.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="AF47">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="39" r="AG47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.4" customHeight="0">
-      <c s="40" t="inlineStr" r="A48">
-        <is>
-          <t xml:space="preserve">Non Transferable Total</t>
-        </is>
-      </c>
-      <c s="13" t="str" r="B48"/>
-      <c s="41" r="C48">
-        <v>171.00000000000</v>
-      </c>
-      <c s="13" t="str" r="D48"/>
-      <c s="38" t="inlineStr" r="E48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="F48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="13" t="str" r="G48"/>
-      <c s="41" r="H48">
-        <v>176.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="I48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="13" t="str" r="J48"/>
-      <c s="36" t="inlineStr" r="K48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="41" r="L48">
-        <v>212.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="M48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="N48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="13" t="str" r="O48"/>
-      <c s="41" r="P48">
-        <v>266.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="Q48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="R48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="41" r="S48">
-        <v>313.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="T48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="U48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="41" r="V48">
-        <v>420.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="W48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="X48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="41" r="Y48">
-        <v>764.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="Z48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="AA48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="41" r="AB48">
-        <v>1134.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="AC48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="AD48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="41" r="AE48">
-        <v>1785.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="AF48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="AG48">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="14.4" customHeight="0">
-      <c s="36" t="inlineStr" r="A49">
-        <is>
-          <t xml:space="preserve">Threshold</t>
-        </is>
-      </c>
-      <c s="13" t="str" r="B49"/>
-      <c s="37" r="C49">
-        <v>6993.00000000000</v>
-      </c>
-      <c s="13" t="str" r="D49"/>
-      <c s="38" t="inlineStr" r="E49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="F49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="13" t="str" r="G49"/>
-      <c s="37" r="H49">
-        <v>6991.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="I49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="13" t="str" r="J49"/>
-      <c s="36" t="inlineStr" r="K49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="37" r="L49">
-        <v>6973.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="M49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="N49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="13" t="str" r="O49"/>
-      <c s="37" r="P49">
-        <v>6946.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="Q49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="R49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="37" r="S49">
-        <v>6922.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="T49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="U49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="37" r="V49">
-        <v>6869.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="W49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="X49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="37" r="Y49">
-        <v>6697.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="Z49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="AA49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="37" r="AB49">
-        <v>6512.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="AC49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="AD49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="37" r="AE49">
-        <v>6186.00000000000</v>
-      </c>
-      <c s="38" t="inlineStr" r="AF49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-      <c s="36" t="inlineStr" r="AG49">
-        <is>
-          <t xml:space="preserve"/>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="14.4" customHeight="1">
-      <c s="8" t="inlineStr" r="B50">
+      <c s="36" t="inlineStr" r="AA47">
+        <is>
+          <t xml:space="preserve"/>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="14.4" customHeight="1">
+      <c s="8" t="inlineStr" r="B48">
         <is>
           <t xml:space="preserve">* Tie resolved in accordance with election law.</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="14.4" customHeight="1"/>
+    <row r="49" ht="14.4" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
@@ -3193,8 +2575,6 @@
     <mergeCell ref="S32:U32"/>
     <mergeCell ref="V32:X32"/>
     <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="I33:J33"/>
@@ -3269,17 +2649,7 @@
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B48:I48"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
